--- a/biology/Botanique/La_Neuveville-sous-Montfort/La_Neuveville-sous-Montfort.xlsx
+++ b/biology/Botanique/La_Neuveville-sous-Montfort/La_Neuveville-sous-Montfort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Neuveville-sous-Montfort est une commune française située dans le département des Vosges en région Grand Est.
@@ -512,22 +524,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Hydrographie
-Réseau hydrographique
-La commune est située dans le bassin versant du Rhin et le bassin versant de la Meuse au sein du bassin Rhin-Meusele bassin versant de la Meuse. Elle est drainée par la ruisseau la Saule, le ruisseau l'Eau de la Ville, le ruisseau du Potcuit et le ruisseau le Decoulant[1],[Carte 1].
-La ruisseau la Saule, d'une longueur totale de 14 km, prend sa source dans la commune  et se jette dans le Madon à Mattaincourt, après avoir traversé six communes[2].
-Le ruisseau l'Eau de la Ville, d'une longueur totale de 12,1 km, prend sa source dans la commune de Haréville et se jette dans le Madon à Bainville-aux-Saules, après avoir traversé cinq communes[3].
-Gestion et qualité des eaux
-Le territoire communal est couvert par le schéma d'aménagement et de gestion des eaux (SAGE) « Nappe des Grès du Trias Inférieur ». Ce document de planification, dont le territoire comprend le périmètre de la zone de répartition des eaux[Note 2] de la nappe des Grès du trias inférieur (GTI), d'une superficie de 1 497 km2,  est en cours d'élaboration. L’objectif poursuivi est de stabiliser les niveaux piézométriques de la nappe des GTI et atteindre l'équilibre entre les prélèvements et la capacité de recharge de la nappe. Il doit être cohérent avec les objectifs de qualité définis dans les SDAGE Rhin-Meuse et Rhône-Méditerranée. La structure porteuse de l'élaboration et de la mise en œuvre est le conseil départemental des Vosges[4].
-La qualité des eaux de baignade et des cours d’eau peut être consultée sur un site dédié géré par les agences de l’eau et l’Agence française pour la biodiversité[Carte 2]. 
-Climat
-En 2010, le climat de la commune est de type climat des marges montargnardes, selon une étude du Centre national de la recherche scientifique s'appuyant sur une série de données couvrant la période 1971-2000[5]. En 2020, Météo-France publie une typologie des climats de la France métropolitaine dans laquelle la commune est dans une zone de transition entre le climat océanique altéré et le climat océanique altéré et est dans la région climatique  Lorraine, plateau de Langres, Morvan, caractérisée par un hiver rude (1,5 °C), des vents modérés et des brouillards fréquents en automne et hiver[6]. 
-Pour la période 1971-2000, la température annuelle moyenne est de 9,5 °C, avec une amplitude thermique annuelle de 16,9 °C. Le cumul annuel moyen de précipitations est de 1 008 mm, avec 12,9 jours de précipitations en janvier et 9,5 jours en juillet[5]. Pour la période 1991-2020, la température moyenne annuelle observée sur la station météorologique de Météo-France la plus proche, « Lignéville », sur la commune de Lignéville à 8 km à vol d'oiseau[7], est de 10,3 °C et le cumul annuel moyen de précipitations est de 856,3 mm. 
-La température maximale relevée sur cette station est de 38,7 °C, atteinte le 25 juillet 2019; la température minimale est de −17,5 °C, atteinte le 20 décembre 2009[Note 3],[8],[9]. 
-Les paramètres climatiques de la commune ont été estimés pour le milieu du siècle (2041-2070) selon différents scénarios d'émission de gaz à effet de serre à partir des nouvelles projections climatiques de référence DRIAS-2020[10]. Ils sont consultables sur un site dédié publié par Météo-France en novembre 2022[11].
 </t>
         </is>
       </c>
@@ -553,17 +554,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Urbanisme</t>
+          <t>Géographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Typologie
-La Neuveville-sous-Montfort est une commune rurale, car elle fait partie des communes peu ou très peu denses, au sens de la grille communale de densité de l'Insee[Note 4],[12],[13],[14].
-Par ailleurs la commune fait partie de l'aire d'attraction de Vittel - Contrexéville, dont elle est une commune de la couronne[Note 5]. Cette aire, qui regroupe 72 communes, est catégorisée dans les aires de moins de 50 000 habitants[15],[16].
-Occupation des sols
-L'occupation des sols de la commune, telle qu'elle ressort de la base de données européenne d’occupation biophysique des sols Corine Land Cover (CLC), est marquée par l'importance des territoires agricoles (56,2 % en 2018), néanmoins en diminution par rapport à 1990 (59,6 %). La répartition détaillée en 2018 est la suivante : 
-forêts (40,5 %), prairies (34,1 %), terres arables (11,5 %), zones agricoles hétérogènes (10,6 %), zones urbanisées (3,4 %)[17]. L'évolution de l’occupation des sols de la commune et de ses infrastructures peut être observée sur les différentes représentations cartographiques du territoire : la carte de Cassini (XVIIIe siècle), la carte d'état-major (1820-1866) et les cartes ou photos aériennes de l'IGN pour la période actuelle (1950 à aujourd'hui)[Carte 3].
+          <t>Hydrographie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Réseau hydrographique</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La commune est située dans le bassin versant du Rhin et le bassin versant de la Meuse au sein du bassin Rhin-Meusele bassin versant de la Meuse. Elle est drainée par la ruisseau la Saule, le ruisseau l'Eau de la Ville, le ruisseau du Potcuit et le ruisseau le Decoulant,[Carte 1].
+La ruisseau la Saule, d'une longueur totale de 14 km, prend sa source dans la commune  et se jette dans le Madon à Mattaincourt, après avoir traversé six communes.
+Le ruisseau l'Eau de la Ville, d'une longueur totale de 12,1 km, prend sa source dans la commune de Haréville et se jette dans le Madon à Bainville-aux-Saules, après avoir traversé cinq communes.
 </t>
         </is>
       </c>
@@ -589,10 +597,26 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Histoire</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hydrographie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Gestion et qualité des eaux</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le territoire communal est couvert par le schéma d'aménagement et de gestion des eaux (SAGE) « Nappe des Grès du Trias Inférieur ». Ce document de planification, dont le territoire comprend le périmètre de la zone de répartition des eaux[Note 2] de la nappe des Grès du trias inférieur (GTI), d'une superficie de 1 497 km2,  est en cours d'élaboration. L’objectif poursuivi est de stabiliser les niveaux piézométriques de la nappe des GTI et atteindre l'équilibre entre les prélèvements et la capacité de recharge de la nappe. Il doit être cohérent avec les objectifs de qualité définis dans les SDAGE Rhin-Meuse et Rhône-Méditerranée. La structure porteuse de l'élaboration et de la mise en œuvre est le conseil départemental des Vosges.
+La qualité des eaux de baignade et des cours d’eau peut être consultée sur un site dédié géré par les agences de l’eau et l’Agence française pour la biodiversité[Carte 2]. 
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -615,12 +639,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Politique et administration</t>
+          <t>Géographie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2010, le climat de la commune est de type climat des marges montargnardes, selon une étude du Centre national de la recherche scientifique s'appuyant sur une série de données couvrant la période 1971-2000. En 2020, Météo-France publie une typologie des climats de la France métropolitaine dans laquelle la commune est dans une zone de transition entre le climat océanique altéré et le climat océanique altéré et est dans la région climatique  Lorraine, plateau de Langres, Morvan, caractérisée par un hiver rude (1,5 °C), des vents modérés et des brouillards fréquents en automne et hiver. 
+Pour la période 1971-2000, la température annuelle moyenne est de 9,5 °C, avec une amplitude thermique annuelle de 16,9 °C. Le cumul annuel moyen de précipitations est de 1 008 mm, avec 12,9 jours de précipitations en janvier et 9,5 jours en juillet. Pour la période 1991-2020, la température moyenne annuelle observée sur la station météorologique de Météo-France la plus proche, « Lignéville », sur la commune de Lignéville à 8 km à vol d'oiseau, est de 10,3 °C et le cumul annuel moyen de précipitations est de 856,3 mm. 
+La température maximale relevée sur cette station est de 38,7 °C, atteinte le 25 juillet 2019; la température minimale est de −17,5 °C, atteinte le 20 décembre 2009[Note 3]. 
+Les paramètres climatiques de la commune ont été estimés pour le milieu du siècle (2041-2070) selon différents scénarios d'émission de gaz à effet de serre à partir des nouvelles projections climatiques de référence DRIAS-2020. Ils sont consultables sur un site dédié publié par Météo-France en novembre 2022.
 </t>
         </is>
       </c>
@@ -646,15 +679,20 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Démographie</t>
+          <t>Urbanisme</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>L'évolution du nombre d'habitants est connue à travers les recensements de la population effectués dans la commune depuis 1793. Pour les communes de moins de 10 000 habitants, une enquête de recensement portant sur toute la population est réalisée tous les cinq ans, les populations légales des années intermédiaires étant quant à elles estimées par interpolation ou extrapolation[19]. Pour la commune, le premier recensement exhaustif entrant dans le cadre du nouveau dispositif a été réalisé en 2007[20].
-En 2021, la commune comptait 185 habitants[Note 6], en augmentation de 5,11 % par rapport à 2015 (Vosges : −3,05 %, France hors Mayotte : +1,84 %).
-De 1962 à 1999 : population sans doubles comptes ; pour les dates suivantes : population municipale.(Sources : Ldh/EHESS/Cassini jusqu'en 1999[21] puis Insee à partir de 2006[22].)
-Histogramme de l'évolution démographique</t>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Neuveville-sous-Montfort est une commune rurale, car elle fait partie des communes peu ou très peu denses, au sens de la grille communale de densité de l'Insee[Note 4].
+Par ailleurs la commune fait partie de l'aire d'attraction de Vittel - Contrexéville, dont elle est une commune de la couronne[Note 5]. Cette aire, qui regroupe 72 communes, est catégorisée dans les aires de moins de 50 000 habitants,.
+</t>
         </is>
       </c>
     </row>
@@ -679,10 +717,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Personnalités liées à la commune</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>Urbanisme</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Occupation des sols</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'occupation des sols de la commune, telle qu'elle ressort de la base de données européenne d’occupation biophysique des sols Corine Land Cover (CLC), est marquée par l'importance des territoires agricoles (56,2 % en 2018), néanmoins en diminution par rapport à 1990 (59,6 %). La répartition détaillée en 2018 est la suivante : 
+forêts (40,5 %), prairies (34,1 %), terres arables (11,5 %), zones agricoles hétérogènes (10,6 %), zones urbanisées (3,4 %). L'évolution de l’occupation des sols de la commune et de ses infrastructures peut être observée sur les différentes représentations cartographiques du territoire : la carte de Cassini (XVIIIe siècle), la carte d'état-major (1820-1866) et les cartes ou photos aériennes de l'IGN pour la période actuelle (1950 à aujourd'hui)[Carte 3].
+</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -705,16 +755,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Viticulture : le vin bleu</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La commune est connue pour être l'épicentre de la production de vin bleu, la spécificité viticole locale[23].
-Ce vin, d'une couleur rouge très foncée tirant sur le bleu, est parfois appelé vin bleu des Vosges pour le différencier des « vins bleus » apparus à la fin des années 2010 en Espagne, en Corse et à Sète notamment, qui sont d'une couleur bleue turquoise, et qui se sont révélés ne pas être du vin parce qu'ils contiennent en réalité des colorants[24].
-</t>
-        </is>
-      </c>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -737,10 +783,142 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Politique et administration</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>La_Neuveville-sous-Montfort</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Neuveville-sous-Montfort</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Démographie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>L'évolution du nombre d'habitants est connue à travers les recensements de la population effectués dans la commune depuis 1793. Pour les communes de moins de 10 000 habitants, une enquête de recensement portant sur toute la population est réalisée tous les cinq ans, les populations légales des années intermédiaires étant quant à elles estimées par interpolation ou extrapolation. Pour la commune, le premier recensement exhaustif entrant dans le cadre du nouveau dispositif a été réalisé en 2007.
+En 2021, la commune comptait 185 habitants[Note 6], en augmentation de 5,11 % par rapport à 2015 (Vosges : −3,05 %, France hors Mayotte : +1,84 %).
+De 1962 à 1999 : population sans doubles comptes ; pour les dates suivantes : population municipale.(Sources : Ldh/EHESS/Cassini jusqu'en 1999 puis Insee à partir de 2006.)
+Histogramme de l'évolution démographique</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>La_Neuveville-sous-Montfort</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Neuveville-sous-Montfort</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Personnalités liées à la commune</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>La_Neuveville-sous-Montfort</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Neuveville-sous-Montfort</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Viticulture : le vin bleu</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La commune est connue pour être l'épicentre de la production de vin bleu, la spécificité viticole locale.
+Ce vin, d'une couleur rouge très foncée tirant sur le bleu, est parfois appelé vin bleu des Vosges pour le différencier des « vins bleus » apparus à la fin des années 2010 en Espagne, en Corse et à Sète notamment, qui sont d'une couleur bleue turquoise, et qui se sont révélés ne pas être du vin parce qu'ils contiennent en réalité des colorants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>La_Neuveville-sous-Montfort</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Neuveville-sous-Montfort</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Pour approfondir</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
